--- a/pred_ohlcv/54_21/2019-10-26 THETA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 THETA ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>127048.7924</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>127048.7924</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>127048.7924</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>127048.7924</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>133023.8532</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>132800.1932</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>133613.7219</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>133613.7219</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -704,7 +704,7 @@
         <v>133911.2506</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>135611.2506</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>135611.2506</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>135611.2506</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>135611.2506</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>135611.2506</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>135611.2506</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>135611.2506</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>135611.2506</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>135611.2506</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>135611.2506</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>141811.2506</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>137895.2506</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>137895.2506</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>137895.2506</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>137895.2506</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>137895.2506</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>141824.6414</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>141824.6414</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>141201.5113</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>140996.3459</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>141805.1904</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>145705.1904</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>145705.1904</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>2360.190400000021</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-6520.63989999998</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-6520.63989999998</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-6520.63989999998</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-6520.63989999998</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-157.3910999999798</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-157.3910999999798</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-123127.8329</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-130611.577</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-26 THETA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 THETA ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>127048.7924</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>127048.7924</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>127048.7924</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>127048.7924</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>133023.8532</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>132800.1932</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>133613.7219</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>133613.7219</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -704,7 +704,7 @@
         <v>133911.2506</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>135611.2506</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>135611.2506</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>135611.2506</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>135611.2506</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>135611.2506</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>135611.2506</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>135611.2506</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>135611.2506</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>135611.2506</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>135611.2506</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>141811.2506</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>137895.2506</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-6520.63989999998</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-6520.63989999998</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-6520.63989999998</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-6520.63989999998</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-157.3910999999798</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-157.3910999999798</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-123127.8329</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-130611.577</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
